--- a/references/Release9_DataDic/SCQ.xlsx
+++ b/references/Release9_DataDic/SCQ.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F89183-21D3-9F4A-9649-FB6E3D83C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2560" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="-20980" yWindow="820" windowWidth="25360" windowHeight="15280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>SCQ_01</t>
   </si>
@@ -615,12 +616,15 @@
   </si>
   <si>
     <t>0= No, 1= Yes</t>
+  </si>
+  <si>
+    <t>1=No, 0=Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -724,15 +728,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1092,94 +1094,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="126" customWidth="1"/>
-    <col min="2" max="3" width="11" style="2"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>91</v>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1187,16 +1188,16 @@
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1204,16 +1205,16 @@
       <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1221,16 +1222,16 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1238,16 +1239,16 @@
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1255,16 +1256,16 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1272,33 +1273,33 @@
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>91</v>
+      <c r="E11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1306,16 +1307,16 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1323,16 +1324,16 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1340,16 +1341,16 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1357,16 +1358,16 @@
       <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1374,16 +1375,16 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1391,16 +1392,16 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1408,16 +1409,16 @@
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1425,16 +1426,16 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1442,378 +1443,378 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>88</v>
       </c>
       <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>91</v>
+      <c r="E21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>91</v>
+      <c r="E22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
+      <c r="E23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>91</v>
+      <c r="E24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
+      <c r="E25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>91</v>
+      <c r="E26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>91</v>
+      <c r="E27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>91</v>
+      <c r="E28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>91</v>
+      <c r="E29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
+      <c r="E30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>91</v>
+      <c r="E31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>88</v>
       </c>
       <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>91</v>
+      <c r="E32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>91</v>
+      <c r="E33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>88</v>
       </c>
       <c r="D34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>91</v>
+      <c r="E34" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>91</v>
+      <c r="E35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>88</v>
       </c>
       <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>91</v>
+      <c r="E36" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>91</v>
+      <c r="E37" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
+      <c r="E38" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>91</v>
+      <c r="E39" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>91</v>
+      <c r="E40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
+      <c r="E41" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>91</v>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1821,10 +1822,10 @@
       <c r="A44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>88</v>
       </c>
     </row>
